--- a/src/QckChi_result_7labels.xlsx
+++ b/src/QckChi_result_7labels.xlsx
@@ -14,14 +14,14 @@
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="62">
   <si>
     <t xml:space="preserve">=====================</t>
   </si>
@@ -319,7 +319,7 @@
   <dimension ref="A1:R75"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="1" sqref="L2:M2 J2"/>
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4427,11 +4427,11 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -4441,10 +4441,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:N39"/>
+  <dimension ref="A2:P35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2:M2"/>
+      <selection pane="topLeft" activeCell="D40" activeCellId="0" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4561,6 +4561,10 @@
         <f aca="false">IF(L4&gt;M4,1,IF(L4=M4,"X",2))</f>
         <v>2</v>
       </c>
+      <c r="P4" s="0" t="str">
+        <f aca="false">IF(D4=N4,"X","_")</f>
+        <v>_</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
@@ -4610,6 +4614,10 @@
         <f aca="false">IF(L5&gt;M5,1,IF(L5=M5,"X",2))</f>
         <v>2</v>
       </c>
+      <c r="P5" s="0" t="str">
+        <f aca="false">IF(D5=N5,"X","_")</f>
+        <v>X</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -4659,6 +4667,10 @@
         <f aca="false">IF(L6&gt;M6,1,IF(L6=M6,"X",2))</f>
         <v>2</v>
       </c>
+      <c r="P6" s="0" t="str">
+        <f aca="false">IF(D6=N6,"X","_")</f>
+        <v>X</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -4708,6 +4720,10 @@
         <f aca="false">IF(L7&gt;M7,1,IF(L7=M7,"X",2))</f>
         <v>2</v>
       </c>
+      <c r="P7" s="0" t="str">
+        <f aca="false">IF(D7=N7,"X","_")</f>
+        <v>X</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -4757,6 +4773,10 @@
         <f aca="false">IF(L8&gt;M8,1,IF(L8=M8,"X",2))</f>
         <v>X</v>
       </c>
+      <c r="P8" s="0" t="str">
+        <f aca="false">IF(D8=N8,"X","_")</f>
+        <v>X</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -4806,36 +4826,40 @@
         <f aca="false">IF(L9&gt;M9,1,IF(L9=M9,"X",2))</f>
         <v>2</v>
       </c>
+      <c r="P9" s="0" t="str">
+        <f aca="false">IF(D9=N9,"X","_")</f>
+        <v>X</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>46.329313</v>
+        <v>23.712075</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>46.393865</v>
-      </c>
-      <c r="D10" s="2" t="n">
+        <v>23.712075</v>
+      </c>
+      <c r="D10" s="2" t="str">
         <f aca="false">IF(B10&gt;C10,1,IF(B10=C10,"X",2))</f>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>84651.5</v>
+        <v>7455.3</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>84651.5</v>
-      </c>
-      <c r="G10" s="2" t="str">
+        <v>7455.9</v>
+      </c>
+      <c r="G10" s="2" t="n">
         <f aca="false">IF(E10&gt;F10,1,IF(E10=F10,"X",2))</f>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>5.870729</v>
+        <v>0.910875</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>1604.778178</v>
+        <v>10.609804</v>
       </c>
       <c r="J10" s="2" t="n">
         <f aca="false">IF(H10&gt;I10,1,IF(H10=I10,"X",2))</f>
@@ -4843,48 +4867,52 @@
       </c>
       <c r="K10" s="3" t="n">
         <f aca="false">I10/H10</f>
-        <v>273.352453843466</v>
+        <v>11.6479253465075</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>96.59435</v>
+        <v>92.274168</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>96.728938</v>
-      </c>
-      <c r="N10" s="2" t="n">
+        <v>92.274168</v>
+      </c>
+      <c r="N10" s="2" t="str">
         <f aca="false">IF(L10&gt;M10,1,IF(L10=M10,"X",2))</f>
-        <v>2</v>
+        <v>X</v>
+      </c>
+      <c r="P10" s="0" t="str">
+        <f aca="false">IF(D10=N10,"X","_")</f>
+        <v>X</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>9.427609</v>
+        <v>30.781011</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>9.090909</v>
+        <v>31.240429</v>
       </c>
       <c r="D11" s="2" t="n">
         <f aca="false">IF(B11&gt;C11,1,IF(B11=C11,"X",2))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>265.7</v>
+        <v>551.6</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>265.7</v>
+        <v>551.6</v>
       </c>
       <c r="G11" s="2" t="str">
         <f aca="false">IF(E11&gt;F11,1,IF(E11=F11,"X",2))</f>
         <v>X</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>0.005661</v>
+        <v>0.00908</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>0.030556</v>
+        <v>0.066846</v>
       </c>
       <c r="J11" s="2" t="n">
         <f aca="false">IF(H11&gt;I11,1,IF(H11=I11,"X",2))</f>
@@ -4892,48 +4920,52 @@
       </c>
       <c r="K11" s="3" t="n">
         <f aca="false">I11/H11</f>
-        <v>5.39763292704469</v>
+        <v>7.36189427312775</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>73.684211</v>
+        <v>85.897436</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>71.052632</v>
+        <v>87.179487</v>
       </c>
       <c r="N11" s="2" t="n">
         <f aca="false">IF(L11&gt;M11,1,IF(L11=M11,"X",2))</f>
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="P11" s="0" t="str">
+        <f aca="false">IF(D11=N11,"X","_")</f>
+        <v>X</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>23.712075</v>
+        <v>92</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>23.712075</v>
-      </c>
-      <c r="D12" s="2" t="str">
+        <v>92.666667</v>
+      </c>
+      <c r="D12" s="2" t="n">
         <f aca="false">IF(B12&gt;C12,1,IF(B12=C12,"X",2))</f>
+        <v>2</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>66.1</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>66.1</v>
+      </c>
+      <c r="G12" s="2" t="str">
+        <f aca="false">IF(E12&gt;F12,1,IF(E12=F12,"X",2))</f>
         <v>X</v>
       </c>
-      <c r="E12" s="0" t="n">
-        <v>7455.3</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>7455.9</v>
-      </c>
-      <c r="G12" s="2" t="n">
-        <f aca="false">IF(E12&gt;F12,1,IF(E12=F12,"X",2))</f>
-        <v>2</v>
-      </c>
       <c r="H12" s="0" t="n">
-        <v>0.910875</v>
+        <v>0.001002</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>10.609804</v>
+        <v>0.002167</v>
       </c>
       <c r="J12" s="2" t="n">
         <f aca="false">IF(H12&gt;I12,1,IF(H12=I12,"X",2))</f>
@@ -4941,48 +4973,52 @@
       </c>
       <c r="K12" s="3" t="n">
         <f aca="false">I12/H12</f>
-        <v>11.6479253465075</v>
+        <v>2.1626746506986</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>92.274168</v>
+        <v>94.520548</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>92.274168</v>
-      </c>
-      <c r="N12" s="2" t="str">
+        <v>95.205479</v>
+      </c>
+      <c r="N12" s="2" t="n">
         <f aca="false">IF(L12&gt;M12,1,IF(L12=M12,"X",2))</f>
+        <v>2</v>
+      </c>
+      <c r="P12" s="0" t="str">
+        <f aca="false">IF(D12=N12,"X","_")</f>
         <v>X</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>89.034639</v>
+        <v>82.13</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>87.652608</v>
+        <v>82.785</v>
       </c>
       <c r="D13" s="2" t="n">
         <f aca="false">IF(B13&gt;C13,1,IF(B13=C13,"X",2))</f>
+        <v>2</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>13086.4</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>12643.9</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <f aca="false">IF(E13&gt;F13,1,IF(E13=F13,"X",2))</f>
         <v>1</v>
       </c>
-      <c r="E13" s="0" t="n">
-        <v>62615.4</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>62615.4</v>
-      </c>
-      <c r="G13" s="2" t="str">
-        <f aca="false">IF(E13&gt;F13,1,IF(E13=F13,"X",2))</f>
-        <v>X</v>
-      </c>
       <c r="H13" s="0" t="n">
-        <v>23.217058</v>
+        <v>0.371883</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>4610.115884</v>
+        <v>40.1901</v>
       </c>
       <c r="J13" s="2" t="n">
         <f aca="false">IF(H13&gt;I13,1,IF(H13=I13,"X",2))</f>
@@ -4990,48 +5026,52 @@
       </c>
       <c r="K13" s="3" t="n">
         <f aca="false">I13/H13</f>
-        <v>198.56589426619</v>
+        <v>108.071893579432</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>89.064498</v>
+        <v>88.473554</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>87.682004</v>
+        <v>89.381343</v>
       </c>
       <c r="N13" s="2" t="n">
         <f aca="false">IF(L13&gt;M13,1,IF(L13=M13,"X",2))</f>
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="P13" s="0" t="str">
+        <f aca="false">IF(D13=N13,"X","_")</f>
+        <v>X</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>30.781011</v>
+        <v>80.294427</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>31.240429</v>
+        <v>81.382755</v>
       </c>
       <c r="D14" s="2" t="n">
         <f aca="false">IF(B14&gt;C14,1,IF(B14=C14,"X",2))</f>
         <v>2</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>551.6</v>
+        <v>4517.4</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>551.6</v>
+        <v>4517.4</v>
       </c>
       <c r="G14" s="2" t="str">
         <f aca="false">IF(E14&gt;F14,1,IF(E14=F14,"X",2))</f>
         <v>X</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>0.00908</v>
+        <v>0.237756</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>0.066846</v>
+        <v>15.002445</v>
       </c>
       <c r="J14" s="2" t="n">
         <f aca="false">IF(H14&gt;I14,1,IF(H14=I14,"X",2))</f>
@@ -5039,48 +5079,52 @@
       </c>
       <c r="K14" s="3" t="n">
         <f aca="false">I14/H14</f>
-        <v>7.36189427312775</v>
+        <v>63.1001741280977</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>85.897436</v>
+        <v>80.868414</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>87.179487</v>
+        <v>81.964522</v>
       </c>
       <c r="N14" s="2" t="n">
         <f aca="false">IF(L14&gt;M14,1,IF(L14=M14,"X",2))</f>
         <v>2</v>
       </c>
+      <c r="P14" s="0" t="str">
+        <f aca="false">IF(D14=N14,"X","_")</f>
+        <v>X</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>41.115207</v>
+        <v>91.162791</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>41.115207</v>
-      </c>
-      <c r="D15" s="2" t="str">
+        <v>92.093023</v>
+      </c>
+      <c r="D15" s="2" t="n">
         <f aca="false">IF(B15&gt;C15,1,IF(B15=C15,"X",2))</f>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>42144.7</v>
+        <v>67.4</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>42144.7</v>
+        <v>67.4</v>
       </c>
       <c r="G15" s="2" t="str">
         <f aca="false">IF(E15&gt;F15,1,IF(E15=F15,"X",2))</f>
         <v>X</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>2.081683</v>
+        <v>0.001202</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>391.632986</v>
+        <v>0.003458</v>
       </c>
       <c r="J15" s="2" t="n">
         <f aca="false">IF(H15&gt;I15,1,IF(H15=I15,"X",2))</f>
@@ -5088,48 +5132,52 @@
       </c>
       <c r="K15" s="3" t="n">
         <f aca="false">I15/H15</f>
-        <v>188.13286461003</v>
+        <v>2.87687188019967</v>
       </c>
       <c r="L15" s="0" t="n">
-        <v>100</v>
+        <v>94.68599</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N15" s="2" t="str">
+        <v>95.652174</v>
+      </c>
+      <c r="N15" s="2" t="n">
         <f aca="false">IF(L15&gt;M15,1,IF(L15=M15,"X",2))</f>
+        <v>2</v>
+      </c>
+      <c r="P15" s="0" t="str">
+        <f aca="false">IF(D15=N15,"X","_")</f>
         <v>X</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>7.037037</v>
+        <v>73.493976</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>7.037037</v>
-      </c>
-      <c r="D16" s="2" t="str">
+        <v>74.819277</v>
+      </c>
+      <c r="D16" s="2" t="n">
         <f aca="false">IF(B16&gt;C16,1,IF(B16=C16,"X",2))</f>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>241.3</v>
+        <v>183.1</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>241.3</v>
-      </c>
-      <c r="G16" s="2" t="str">
+        <v>183.9</v>
+      </c>
+      <c r="G16" s="2" t="n">
         <f aca="false">IF(E16&gt;F16,1,IF(E16=F16,"X",2))</f>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>0.004291</v>
+        <v>0.005499</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>0.022718</v>
+        <v>0.023199</v>
       </c>
       <c r="J16" s="2" t="n">
         <f aca="false">IF(H16&gt;I16,1,IF(H16=I16,"X",2))</f>
@@ -5137,48 +5185,52 @@
       </c>
       <c r="K16" s="3" t="n">
         <f aca="false">I16/H16</f>
-        <v>5.29433698438592</v>
+        <v>4.21876704855428</v>
       </c>
       <c r="L16" s="0" t="n">
-        <v>86.363636</v>
+        <v>81.117021</v>
       </c>
       <c r="M16" s="0" t="n">
-        <v>86.363636</v>
-      </c>
-      <c r="N16" s="2" t="str">
+        <v>82.579787</v>
+      </c>
+      <c r="N16" s="2" t="n">
         <f aca="false">IF(L16&gt;M16,1,IF(L16=M16,"X",2))</f>
+        <v>2</v>
+      </c>
+      <c r="P16" s="0" t="str">
+        <f aca="false">IF(D16=N16,"X","_")</f>
         <v>X</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>92</v>
+        <v>94.499269</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>92.666667</v>
+        <v>94.133772</v>
       </c>
       <c r="D17" s="2" t="n">
         <f aca="false">IF(B17&gt;C17,1,IF(B17=C17,"X",2))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>66.1</v>
+        <v>292.4</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>66.1</v>
-      </c>
-      <c r="G17" s="2" t="str">
+        <v>289.4</v>
+      </c>
+      <c r="G17" s="2" t="n">
         <f aca="false">IF(E17&gt;F17,1,IF(E17=F17,"X",2))</f>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>0.001002</v>
+        <v>0.057951</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>0.002167</v>
+        <v>0.332775</v>
       </c>
       <c r="J17" s="2" t="n">
         <f aca="false">IF(H17&gt;I17,1,IF(H17=I17,"X",2))</f>
@@ -5186,48 +5238,52 @@
       </c>
       <c r="K17" s="3" t="n">
         <f aca="false">I17/H17</f>
-        <v>2.1626746506986</v>
+        <v>5.74235129678521</v>
       </c>
       <c r="L17" s="0" t="n">
-        <v>94.520548</v>
+        <v>94.880734</v>
       </c>
       <c r="M17" s="0" t="n">
-        <v>95.205479</v>
+        <v>94.513761</v>
       </c>
       <c r="N17" s="2" t="n">
         <f aca="false">IF(L17&gt;M17,1,IF(L17=M17,"X",2))</f>
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="P17" s="0" t="str">
+        <f aca="false">IF(D17=N17,"X","_")</f>
+        <v>X</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>82.13</v>
+        <v>77.492722</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>82.785</v>
+        <v>77.520015</v>
       </c>
       <c r="D18" s="2" t="n">
         <f aca="false">IF(B18&gt;C18,1,IF(B18=C18,"X",2))</f>
         <v>2</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>13086.4</v>
+        <v>9394.6</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>12643.9</v>
-      </c>
-      <c r="G18" s="2" t="n">
+        <v>9394.6</v>
+      </c>
+      <c r="G18" s="2" t="str">
         <f aca="false">IF(E18&gt;F18,1,IF(E18=F18,"X",2))</f>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>0.371883</v>
+        <v>0.179212</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>40.1901</v>
+        <v>11.401409</v>
       </c>
       <c r="J18" s="2" t="n">
         <f aca="false">IF(H18&gt;I18,1,IF(H18=I18,"X",2))</f>
@@ -5235,48 +5291,52 @@
       </c>
       <c r="K18" s="3" t="n">
         <f aca="false">I18/H18</f>
-        <v>108.071893579432</v>
+        <v>63.6196739057652</v>
       </c>
       <c r="L18" s="0" t="n">
-        <v>88.473554</v>
+        <v>99.625731</v>
       </c>
       <c r="M18" s="0" t="n">
-        <v>89.381343</v>
+        <v>99.660819</v>
       </c>
       <c r="N18" s="2" t="n">
         <f aca="false">IF(L18&gt;M18,1,IF(L18=M18,"X",2))</f>
         <v>2</v>
       </c>
+      <c r="P18" s="0" t="str">
+        <f aca="false">IF(D18=N18,"X","_")</f>
+        <v>X</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>80.294427</v>
+        <v>82.84604</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>81.382755</v>
+        <v>82.068838</v>
       </c>
       <c r="D19" s="2" t="n">
         <f aca="false">IF(B19&gt;C19,1,IF(B19=C19,"X",2))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>4517.4</v>
+        <v>471.1</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>4517.4</v>
+        <v>471.1</v>
       </c>
       <c r="G19" s="2" t="str">
         <f aca="false">IF(E19&gt;F19,1,IF(E19=F19,"X",2))</f>
         <v>X</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>0.237756</v>
+        <v>0.035796</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>15.002445</v>
+        <v>0.355269</v>
       </c>
       <c r="J19" s="2" t="n">
         <f aca="false">IF(H19&gt;I19,1,IF(H19=I19,"X",2))</f>
@@ -5284,48 +5344,52 @@
       </c>
       <c r="K19" s="3" t="n">
         <f aca="false">I19/H19</f>
-        <v>63.1001741280977</v>
+        <v>9.92482400268186</v>
       </c>
       <c r="L19" s="0" t="n">
-        <v>80.868414</v>
+        <v>82.922763</v>
       </c>
       <c r="M19" s="0" t="n">
-        <v>81.964522</v>
+        <v>82.144842</v>
       </c>
       <c r="N19" s="2" t="n">
         <f aca="false">IF(L19&gt;M19,1,IF(L19=M19,"X",2))</f>
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="P19" s="0" t="str">
+        <f aca="false">IF(D19=N19,"X","_")</f>
+        <v>X</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>91.162791</v>
+        <v>60.9375</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>92.093023</v>
+        <v>62.369792</v>
       </c>
       <c r="D20" s="2" t="n">
         <f aca="false">IF(B20&gt;C20,1,IF(B20=C20,"X",2))</f>
         <v>2</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>67.4</v>
+        <v>599.5</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>67.4</v>
+        <v>599.5</v>
       </c>
       <c r="G20" s="2" t="str">
         <f aca="false">IF(E20&gt;F20,1,IF(E20=F20,"X",2))</f>
         <v>X</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>0.001202</v>
+        <v>0.008396</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>0.003458</v>
+        <v>0.099735</v>
       </c>
       <c r="J20" s="2" t="n">
         <f aca="false">IF(H20&gt;I20,1,IF(H20=I20,"X",2))</f>
@@ -5333,48 +5397,52 @@
       </c>
       <c r="K20" s="3" t="n">
         <f aca="false">I20/H20</f>
-        <v>2.87687188019967</v>
+        <v>11.8788708909004</v>
       </c>
       <c r="L20" s="0" t="n">
-        <v>94.68599</v>
+        <v>69.539376</v>
       </c>
       <c r="M20" s="0" t="n">
-        <v>95.652174</v>
+        <v>71.173848</v>
       </c>
       <c r="N20" s="2" t="n">
         <f aca="false">IF(L20&gt;M20,1,IF(L20=M20,"X",2))</f>
         <v>2</v>
       </c>
+      <c r="P20" s="0" t="str">
+        <f aca="false">IF(D20=N20,"X","_")</f>
+        <v>X</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>73.493976</v>
+        <v>39.783784</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>74.819277</v>
+        <v>39.959459</v>
       </c>
       <c r="D21" s="2" t="n">
         <f aca="false">IF(B21&gt;C21,1,IF(B21=C21,"X",2))</f>
         <v>2</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>183.1</v>
+        <v>6612.4</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="G21" s="2" t="n">
+        <v>6612.4</v>
+      </c>
+      <c r="G21" s="2" t="str">
         <f aca="false">IF(E21&gt;F21,1,IF(E21=F21,"X",2))</f>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>0.005499</v>
+        <v>0.165381</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>0.023199</v>
+        <v>10.547319</v>
       </c>
       <c r="J21" s="2" t="n">
         <f aca="false">IF(H21&gt;I21,1,IF(H21=I21,"X",2))</f>
@@ -5382,48 +5450,52 @@
       </c>
       <c r="K21" s="3" t="n">
         <f aca="false">I21/H21</f>
-        <v>4.21876704855428</v>
+        <v>63.7758811471693</v>
       </c>
       <c r="L21" s="0" t="n">
-        <v>81.117021</v>
+        <v>97.193793</v>
       </c>
       <c r="M21" s="0" t="n">
-        <v>82.579787</v>
+        <v>97.622978</v>
       </c>
       <c r="N21" s="2" t="n">
         <f aca="false">IF(L21&gt;M21,1,IF(L21=M21,"X",2))</f>
         <v>2</v>
       </c>
+      <c r="P21" s="0" t="str">
+        <f aca="false">IF(D21=N21,"X","_")</f>
+        <v>X</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>94.499269</v>
+        <v>46.753247</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>94.133772</v>
+        <v>46.969697</v>
       </c>
       <c r="D22" s="2" t="n">
         <f aca="false">IF(B22&gt;C22,1,IF(B22=C22,"X",2))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>292.4</v>
+        <v>399.1</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>289.4</v>
-      </c>
-      <c r="G22" s="2" t="n">
+        <v>399.1</v>
+      </c>
+      <c r="G22" s="2" t="str">
         <f aca="false">IF(E22&gt;F22,1,IF(E22=F22,"X",2))</f>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>0.057951</v>
+        <v>0.005524</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>0.332775</v>
+        <v>0.040247</v>
       </c>
       <c r="J22" s="2" t="n">
         <f aca="false">IF(H22&gt;I22,1,IF(H22=I22,"X",2))</f>
@@ -5431,48 +5503,52 @@
       </c>
       <c r="K22" s="3" t="n">
         <f aca="false">I22/H22</f>
-        <v>5.74235129678521</v>
+        <v>7.28584359160029</v>
       </c>
       <c r="L22" s="0" t="n">
-        <v>94.880734</v>
+        <v>67.924528</v>
       </c>
       <c r="M22" s="0" t="n">
-        <v>94.513761</v>
+        <v>68.238994</v>
       </c>
       <c r="N22" s="2" t="n">
         <f aca="false">IF(L22&gt;M22,1,IF(L22=M22,"X",2))</f>
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="P22" s="0" t="str">
+        <f aca="false">IF(D22=N22,"X","_")</f>
+        <v>X</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>77.492722</v>
+        <v>70.30303</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>77.520015</v>
+        <v>72.696193</v>
       </c>
       <c r="D23" s="2" t="n">
         <f aca="false">IF(B23&gt;C23,1,IF(B23=C23,"X",2))</f>
         <v>2</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>9394.6</v>
+        <v>3237.3</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>9394.6</v>
-      </c>
-      <c r="G23" s="2" t="str">
+        <v>2992.7</v>
+      </c>
+      <c r="G23" s="2" t="n">
         <f aca="false">IF(E23&gt;F23,1,IF(E23=F23,"X",2))</f>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>0.179212</v>
+        <v>0.249837</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>11.401409</v>
+        <v>15.094193</v>
       </c>
       <c r="J23" s="2" t="n">
         <f aca="false">IF(H23&gt;I23,1,IF(H23=I23,"X",2))</f>
@@ -5480,48 +5556,52 @@
       </c>
       <c r="K23" s="3" t="n">
         <f aca="false">I23/H23</f>
-        <v>63.6196739057652</v>
+        <v>60.4161633384967</v>
       </c>
       <c r="L23" s="0" t="n">
-        <v>99.625731</v>
+        <v>73.849167</v>
       </c>
       <c r="M23" s="0" t="n">
-        <v>99.660819</v>
+        <v>76.789232</v>
       </c>
       <c r="N23" s="2" t="n">
         <f aca="false">IF(L23&gt;M23,1,IF(L23=M23,"X",2))</f>
         <v>2</v>
       </c>
+      <c r="P23" s="0" t="str">
+        <f aca="false">IF(D23=N23,"X","_")</f>
+        <v>X</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>82.84604</v>
+        <v>88.571429</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>82.068838</v>
+        <v>88.528139</v>
       </c>
       <c r="D24" s="2" t="n">
         <f aca="false">IF(B24&gt;C24,1,IF(B24=C24,"X",2))</f>
         <v>1</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>471.1</v>
+        <v>1226.7</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>471.1</v>
-      </c>
-      <c r="G24" s="2" t="str">
+        <v>1217.1</v>
+      </c>
+      <c r="G24" s="2" t="n">
         <f aca="false">IF(E24&gt;F24,1,IF(E24=F24,"X",2))</f>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>0.035796</v>
+        <v>0.047331</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>0.355269</v>
+        <v>0.442371</v>
       </c>
       <c r="J24" s="2" t="n">
         <f aca="false">IF(H24&gt;I24,1,IF(H24=I24,"X",2))</f>
@@ -5529,48 +5609,52 @@
       </c>
       <c r="K24" s="3" t="n">
         <f aca="false">I24/H24</f>
-        <v>9.92482400268186</v>
+        <v>9.34632693160931</v>
       </c>
       <c r="L24" s="0" t="n">
-        <v>82.922763</v>
+        <v>95.429104</v>
       </c>
       <c r="M24" s="0" t="n">
-        <v>82.144842</v>
+        <v>95.382463</v>
       </c>
       <c r="N24" s="2" t="n">
         <f aca="false">IF(L24&gt;M24,1,IF(L24=M24,"X",2))</f>
         <v>1</v>
       </c>
+      <c r="P24" s="0" t="str">
+        <f aca="false">IF(D24=N24,"X","_")</f>
+        <v>X</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>60.9375</v>
+        <v>97.701685</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>62.369792</v>
+        <v>91.586062</v>
       </c>
       <c r="D25" s="2" t="n">
         <f aca="false">IF(B25&gt;C25,1,IF(B25=C25,"X",2))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>599.5</v>
+        <v>85.5</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>599.5</v>
-      </c>
-      <c r="G25" s="2" t="str">
+        <v>84.6</v>
+      </c>
+      <c r="G25" s="2" t="n">
         <f aca="false">IF(E25&gt;F25,1,IF(E25=F25,"X",2))</f>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>0.008396</v>
+        <v>0.583724</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>0.099735</v>
+        <v>1.567628</v>
       </c>
       <c r="J25" s="2" t="n">
         <f aca="false">IF(H25&gt;I25,1,IF(H25=I25,"X",2))</f>
@@ -5578,48 +5662,52 @@
       </c>
       <c r="K25" s="3" t="n">
         <f aca="false">I25/H25</f>
-        <v>11.8788708909004</v>
+        <v>2.68556372532224</v>
       </c>
       <c r="L25" s="0" t="n">
-        <v>69.539376</v>
+        <v>97.715163</v>
       </c>
       <c r="M25" s="0" t="n">
-        <v>71.173848</v>
+        <v>91.598696</v>
       </c>
       <c r="N25" s="2" t="n">
         <f aca="false">IF(L25&gt;M25,1,IF(L25=M25,"X",2))</f>
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="P25" s="0" t="str">
+        <f aca="false">IF(D25=N25,"X","_")</f>
+        <v>X</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>39.783784</v>
+        <v>75.766804</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>39.959459</v>
+        <v>76.702197</v>
       </c>
       <c r="D26" s="2" t="n">
         <f aca="false">IF(B26&gt;C26,1,IF(B26=C26,"X",2))</f>
         <v>2</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>6612.4</v>
+        <v>2154.8</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>6612.4</v>
-      </c>
-      <c r="G26" s="2" t="str">
+        <v>2155.6</v>
+      </c>
+      <c r="G26" s="2" t="n">
         <f aca="false">IF(E26&gt;F26,1,IF(E26=F26,"X",2))</f>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>0.165381</v>
+        <v>0.270649</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>10.547319</v>
+        <v>4.471193</v>
       </c>
       <c r="J26" s="2" t="n">
         <f aca="false">IF(H26&gt;I26,1,IF(H26=I26,"X",2))</f>
@@ -5627,48 +5715,52 @@
       </c>
       <c r="K26" s="3" t="n">
         <f aca="false">I26/H26</f>
-        <v>63.7758811471693</v>
+        <v>16.5202642537013</v>
       </c>
       <c r="L26" s="0" t="n">
-        <v>97.193793</v>
+        <v>87.271361</v>
       </c>
       <c r="M26" s="0" t="n">
-        <v>97.622978</v>
+        <v>88.348785</v>
       </c>
       <c r="N26" s="2" t="n">
         <f aca="false">IF(L26&gt;M26,1,IF(L26=M26,"X",2))</f>
         <v>2</v>
       </c>
+      <c r="P26" s="0" t="str">
+        <f aca="false">IF(D26=N26,"X","_")</f>
+        <v>X</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>46.753247</v>
+        <v>75.309091</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>46.969697</v>
+        <v>75.6</v>
       </c>
       <c r="D27" s="2" t="n">
         <f aca="false">IF(B27&gt;C27,1,IF(B27=C27,"X",2))</f>
         <v>2</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>399.1</v>
+        <v>4389.1</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>399.1</v>
-      </c>
-      <c r="G27" s="2" t="str">
+        <v>4366.3</v>
+      </c>
+      <c r="G27" s="2" t="n">
         <f aca="false">IF(E27&gt;F27,1,IF(E27=F27,"X",2))</f>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>0.005524</v>
+        <v>0.289956</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>0.040247</v>
+        <v>8.216433</v>
       </c>
       <c r="J27" s="2" t="n">
         <f aca="false">IF(H27&gt;I27,1,IF(H27=I27,"X",2))</f>
@@ -5676,48 +5768,52 @@
       </c>
       <c r="K27" s="3" t="n">
         <f aca="false">I27/H27</f>
-        <v>7.28584359160029</v>
+        <v>28.3368269668501</v>
       </c>
       <c r="L27" s="0" t="n">
-        <v>67.924528</v>
+        <v>97.025064</v>
       </c>
       <c r="M27" s="0" t="n">
-        <v>68.238994</v>
+        <v>97.559831</v>
       </c>
       <c r="N27" s="2" t="n">
         <f aca="false">IF(L27&gt;M27,1,IF(L27=M27,"X",2))</f>
         <v>2</v>
       </c>
+      <c r="P27" s="0" t="str">
+        <f aca="false">IF(D27=N27,"X","_")</f>
+        <v>X</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>70.30303</v>
+        <v>91.402778</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>72.696193</v>
+        <v>91.597222</v>
       </c>
       <c r="D28" s="2" t="n">
         <f aca="false">IF(B28&gt;C28,1,IF(B28=C28,"X",2))</f>
         <v>2</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>3237.3</v>
+        <v>1165.3</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>2992.7</v>
+        <v>1161.5</v>
       </c>
       <c r="G28" s="2" t="n">
         <f aca="false">IF(E28&gt;F28,1,IF(E28=F28,"X",2))</f>
         <v>1</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>0.249837</v>
+        <v>0.125682</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>15.094193</v>
+        <v>1.376095</v>
       </c>
       <c r="J28" s="2" t="n">
         <f aca="false">IF(H28&gt;I28,1,IF(H28=I28,"X",2))</f>
@@ -5725,48 +5821,52 @@
       </c>
       <c r="K28" s="3" t="n">
         <f aca="false">I28/H28</f>
-        <v>60.4161633384967</v>
+        <v>10.9490221352302</v>
       </c>
       <c r="L28" s="0" t="n">
-        <v>73.849167</v>
+        <v>93.546553</v>
       </c>
       <c r="M28" s="0" t="n">
-        <v>76.789232</v>
+        <v>93.745558</v>
       </c>
       <c r="N28" s="2" t="n">
         <f aca="false">IF(L28&gt;M28,1,IF(L28=M28,"X",2))</f>
         <v>2</v>
       </c>
+      <c r="P28" s="0" t="str">
+        <f aca="false">IF(D28=N28,"X","_")</f>
+        <v>X</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>88.571429</v>
+        <v>0.256757</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>88.528139</v>
-      </c>
-      <c r="D29" s="2" t="n">
+        <v>0.256757</v>
+      </c>
+      <c r="D29" s="2" t="str">
         <f aca="false">IF(B29&gt;C29,1,IF(B29=C29,"X",2))</f>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>1226.7</v>
+        <v>6660</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>1217.1</v>
-      </c>
-      <c r="G29" s="2" t="n">
+        <v>6660</v>
+      </c>
+      <c r="G29" s="2" t="str">
         <f aca="false">IF(E29&gt;F29,1,IF(E29=F29,"X",2))</f>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>0.047331</v>
+        <v>0.157665</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>0.442371</v>
+        <v>7.579011</v>
       </c>
       <c r="J29" s="2" t="n">
         <f aca="false">IF(H29&gt;I29,1,IF(H29=I29,"X",2))</f>
@@ -5774,48 +5874,52 @@
       </c>
       <c r="K29" s="3" t="n">
         <f aca="false">I29/H29</f>
-        <v>9.34632693160931</v>
+        <v>48.0703453524879</v>
       </c>
       <c r="L29" s="0" t="n">
-        <v>95.429104</v>
+        <v>90.47619</v>
       </c>
       <c r="M29" s="0" t="n">
-        <v>95.382463</v>
-      </c>
-      <c r="N29" s="2" t="n">
+        <v>90.47619</v>
+      </c>
+      <c r="N29" s="2" t="str">
         <f aca="false">IF(L29&gt;M29,1,IF(L29=M29,"X",2))</f>
-        <v>1</v>
+        <v>X</v>
+      </c>
+      <c r="P29" s="0" t="str">
+        <f aca="false">IF(D29=N29,"X","_")</f>
+        <v>X</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>97.701685</v>
+        <v>29.078014</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>91.586062</v>
+        <v>29.314421</v>
       </c>
       <c r="D30" s="2" t="n">
         <f aca="false">IF(B30&gt;C30,1,IF(B30=C30,"X",2))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>85.5</v>
+        <v>755.6</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>84.6</v>
+        <v>753.4</v>
       </c>
       <c r="G30" s="2" t="n">
         <f aca="false">IF(E30&gt;F30,1,IF(E30=F30,"X",2))</f>
         <v>1</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>0.583724</v>
+        <v>0.021342</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>1.567628</v>
+        <v>0.129281</v>
       </c>
       <c r="J30" s="2" t="n">
         <f aca="false">IF(H30&gt;I30,1,IF(H30=I30,"X",2))</f>
@@ -5823,48 +5927,52 @@
       </c>
       <c r="K30" s="3" t="n">
         <f aca="false">I30/H30</f>
-        <v>2.68556372532224</v>
+        <v>6.05758598069534</v>
       </c>
       <c r="L30" s="0" t="n">
-        <v>97.715163</v>
+        <v>70.689655</v>
       </c>
       <c r="M30" s="0" t="n">
-        <v>91.598696</v>
+        <v>71.469741</v>
       </c>
       <c r="N30" s="2" t="n">
         <f aca="false">IF(L30&gt;M30,1,IF(L30=M30,"X",2))</f>
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="P30" s="0" t="str">
+        <f aca="false">IF(D30=N30,"X","_")</f>
+        <v>X</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>75.766804</v>
+        <v>92.727273</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>76.702197</v>
+        <v>93.030303</v>
       </c>
       <c r="D31" s="2" t="n">
         <f aca="false">IF(B31&gt;C31,1,IF(B31=C31,"X",2))</f>
         <v>2</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>2154.8</v>
+        <v>748.6</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>2155.6</v>
+        <v>748.4</v>
       </c>
       <c r="G31" s="2" t="n">
         <f aca="false">IF(E31&gt;F31,1,IF(E31=F31,"X",2))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>0.270649</v>
+        <v>0.013008</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>4.471193</v>
+        <v>0.16008</v>
       </c>
       <c r="J31" s="2" t="n">
         <f aca="false">IF(H31&gt;I31,1,IF(H31=I31,"X",2))</f>
@@ -5872,48 +5980,52 @@
       </c>
       <c r="K31" s="3" t="n">
         <f aca="false">I31/H31</f>
-        <v>16.5202642537013</v>
+        <v>12.3062730627306</v>
       </c>
       <c r="L31" s="0" t="n">
-        <v>87.271361</v>
+        <v>96.529968</v>
       </c>
       <c r="M31" s="0" t="n">
-        <v>88.348785</v>
+        <v>96.845426</v>
       </c>
       <c r="N31" s="2" t="n">
         <f aca="false">IF(L31&gt;M31,1,IF(L31=M31,"X",2))</f>
         <v>2</v>
       </c>
+      <c r="P31" s="0" t="str">
+        <f aca="false">IF(D31=N31,"X","_")</f>
+        <v>X</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>75.309091</v>
+        <v>59.287054</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>75.6</v>
+        <v>59.099437</v>
       </c>
       <c r="D32" s="2" t="n">
         <f aca="false">IF(B32&gt;C32,1,IF(B32=C32,"X",2))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>4389.1</v>
+        <v>1028.2</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>4366.3</v>
+        <v>951</v>
       </c>
       <c r="G32" s="2" t="n">
         <f aca="false">IF(E32&gt;F32,1,IF(E32=F32,"X",2))</f>
         <v>1</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>0.289956</v>
+        <v>0.025189</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>8.216433</v>
+        <v>0.364136</v>
       </c>
       <c r="J32" s="2" t="n">
         <f aca="false">IF(H32&gt;I32,1,IF(H32=I32,"X",2))</f>
@@ -5921,48 +6033,52 @@
       </c>
       <c r="K32" s="3" t="n">
         <f aca="false">I32/H32</f>
-        <v>28.3368269668501</v>
+        <v>14.4561514947001</v>
       </c>
       <c r="L32" s="0" t="n">
-        <v>97.025064</v>
+        <v>62.245568</v>
       </c>
       <c r="M32" s="0" t="n">
-        <v>97.559831</v>
+        <v>62.171053</v>
       </c>
       <c r="N32" s="2" t="n">
         <f aca="false">IF(L32&gt;M32,1,IF(L32=M32,"X",2))</f>
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="P32" s="0" t="str">
+        <f aca="false">IF(D32=N32,"X","_")</f>
+        <v>X</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>91.402778</v>
+        <v>54.328297</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>91.597222</v>
+        <v>55.287873</v>
       </c>
       <c r="D33" s="2" t="n">
         <f aca="false">IF(B33&gt;C33,1,IF(B33=C33,"X",2))</f>
         <v>2</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>1165.3</v>
+        <v>2145.5</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>1161.5</v>
+        <v>1640.2</v>
       </c>
       <c r="G33" s="2" t="n">
         <f aca="false">IF(E33&gt;F33,1,IF(E33=F33,"X",2))</f>
         <v>1</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>0.125682</v>
+        <v>0.081322</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>1.376095</v>
+        <v>2.643661</v>
       </c>
       <c r="J33" s="2" t="n">
         <f aca="false">IF(H33&gt;I33,1,IF(H33=I33,"X",2))</f>
@@ -5970,310 +6086,95 @@
       </c>
       <c r="K33" s="3" t="n">
         <f aca="false">I33/H33</f>
-        <v>10.9490221352302</v>
+        <v>32.5085585696367</v>
       </c>
       <c r="L33" s="0" t="n">
-        <v>93.546553</v>
+        <v>54.843364</v>
       </c>
       <c r="M33" s="0" t="n">
-        <v>93.745558</v>
+        <v>55.835052</v>
       </c>
       <c r="N33" s="2" t="n">
         <f aca="false">IF(L33&gt;M33,1,IF(L33=M33,"X",2))</f>
         <v>2</v>
       </c>
+      <c r="P33" s="0" t="str">
+        <f aca="false">IF(D33=N33,"X","_")</f>
+        <v>X</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B34" s="3" t="n">
-        <v>0.256757</v>
-      </c>
-      <c r="C34" s="3" t="n">
-        <v>0.256757</v>
-      </c>
-      <c r="D34" s="2" t="str">
-        <f aca="false">IF(B34&gt;C34,1,IF(B34=C34,"X",2))</f>
-        <v>X</v>
+      <c r="B34" s="0" t="n">
+        <f aca="false">AVERAGE(B4:B33)</f>
+        <v>62.5931475666667</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <f aca="false">AVERAGE(C4:C33)</f>
+        <v>62.4767836</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>6660</v>
+        <f aca="false">AVERAGE(E4:E33)</f>
+        <v>3074.26666666667</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>6660</v>
-      </c>
-      <c r="G34" s="2" t="str">
-        <f aca="false">IF(E34&gt;F34,1,IF(E34=F34,"X",2))</f>
-        <v>X</v>
+        <f aca="false">AVERAGE(F4:F33)</f>
+        <v>3022.85666666667</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>0.157665</v>
+        <f aca="false">AVERAGE(H4:H33)</f>
+        <v>0.151238433333333</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>7.579011</v>
-      </c>
-      <c r="J34" s="2" t="n">
-        <f aca="false">IF(H34&gt;I34,1,IF(H34=I34,"X",2))</f>
-        <v>2</v>
+        <f aca="false">AVERAGE(I4:I33)</f>
+        <v>9.1416781</v>
       </c>
       <c r="K34" s="3" t="n">
         <f aca="false">I34/H34</f>
-        <v>48.0703453524879</v>
+        <v>60.4454694386546</v>
       </c>
       <c r="L34" s="0" t="n">
-        <v>90.47619</v>
+        <f aca="false">AVERAGE(L4:L33)</f>
+        <v>82.2246136666667</v>
       </c>
       <c r="M34" s="0" t="n">
-        <v>90.47619</v>
-      </c>
-      <c r="N34" s="2" t="str">
-        <f aca="false">IF(L34&gt;M34,1,IF(L34=M34,"X",2))</f>
-        <v>X</v>
-      </c>
+        <f aca="false">AVERAGE(M4:M33)</f>
+        <v>82.9292499</v>
+      </c>
+      <c r="N34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B35" s="3" t="n">
-        <v>29.078014</v>
-      </c>
-      <c r="C35" s="3" t="n">
-        <v>29.314421</v>
-      </c>
-      <c r="D35" s="2" t="n">
-        <f aca="false">IF(B35&gt;C35,1,IF(B35=C35,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>755.6</v>
-      </c>
-      <c r="F35" s="0" t="n">
-        <v>753.4</v>
-      </c>
-      <c r="G35" s="2" t="n">
-        <f aca="false">IF(E35&gt;F35,1,IF(E35=F35,"X",2))</f>
-        <v>1</v>
+      <c r="B35" s="0" t="n">
+        <f aca="false">MEDIAN(B4:B33)</f>
+        <v>71.898503</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <f aca="false">MEDIAN(C4:C33)</f>
+        <v>73.757735</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>0.021342</v>
+        <f aca="false">MEDIAN(H4:H33)</f>
+        <v>0.0415635</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>0.129281</v>
-      </c>
-      <c r="J35" s="2" t="n">
-        <f aca="false">IF(H35&gt;I35,1,IF(H35=I35,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="K35" s="3" t="n">
-        <f aca="false">I35/H35</f>
-        <v>6.05758598069534</v>
+        <f aca="false">MEDIAN(I4:I33)</f>
+        <v>0.3597025</v>
       </c>
       <c r="L35" s="0" t="n">
-        <v>70.689655</v>
+        <f aca="false">MEDIAN(L4:L33)</f>
+        <v>86.757024</v>
       </c>
       <c r="M35" s="0" t="n">
-        <v>71.469741</v>
-      </c>
-      <c r="N35" s="2" t="n">
-        <f aca="false">IF(L35&gt;M35,1,IF(L35=M35,"X",2))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="B36" s="3" t="n">
-        <v>92.727273</v>
-      </c>
-      <c r="C36" s="3" t="n">
-        <v>93.030303</v>
-      </c>
-      <c r="D36" s="2" t="n">
-        <f aca="false">IF(B36&gt;C36,1,IF(B36=C36,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="E36" s="0" t="n">
-        <v>748.6</v>
-      </c>
-      <c r="F36" s="0" t="n">
-        <v>748.4</v>
-      </c>
-      <c r="G36" s="2" t="n">
-        <f aca="false">IF(E36&gt;F36,1,IF(E36=F36,"X",2))</f>
-        <v>1</v>
-      </c>
-      <c r="H36" s="0" t="n">
-        <v>0.013008</v>
-      </c>
-      <c r="I36" s="0" t="n">
-        <v>0.16008</v>
-      </c>
-      <c r="J36" s="2" t="n">
-        <f aca="false">IF(H36&gt;I36,1,IF(H36=I36,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="K36" s="3" t="n">
-        <f aca="false">I36/H36</f>
-        <v>12.3062730627306</v>
-      </c>
-      <c r="L36" s="0" t="n">
-        <v>96.529968</v>
-      </c>
-      <c r="M36" s="0" t="n">
-        <v>96.845426</v>
-      </c>
-      <c r="N36" s="2" t="n">
-        <f aca="false">IF(L36&gt;M36,1,IF(L36=M36,"X",2))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B37" s="3" t="n">
-        <v>59.287054</v>
-      </c>
-      <c r="C37" s="3" t="n">
-        <v>59.099437</v>
-      </c>
-      <c r="D37" s="2" t="n">
-        <f aca="false">IF(B37&gt;C37,1,IF(B37=C37,"X",2))</f>
-        <v>1</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <v>1028.2</v>
-      </c>
-      <c r="F37" s="0" t="n">
-        <v>951</v>
-      </c>
-      <c r="G37" s="2" t="n">
-        <f aca="false">IF(E37&gt;F37,1,IF(E37=F37,"X",2))</f>
-        <v>1</v>
-      </c>
-      <c r="H37" s="0" t="n">
-        <v>0.025189</v>
-      </c>
-      <c r="I37" s="0" t="n">
-        <v>0.364136</v>
-      </c>
-      <c r="J37" s="2" t="n">
-        <f aca="false">IF(H37&gt;I37,1,IF(H37=I37,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="K37" s="3" t="n">
-        <f aca="false">I37/H37</f>
-        <v>14.4561514947001</v>
-      </c>
-      <c r="L37" s="0" t="n">
-        <v>62.245568</v>
-      </c>
-      <c r="M37" s="0" t="n">
-        <v>62.171053</v>
-      </c>
-      <c r="N37" s="2" t="n">
-        <f aca="false">IF(L37&gt;M37,1,IF(L37=M37,"X",2))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B38" s="3" t="n">
-        <v>54.328297</v>
-      </c>
-      <c r="C38" s="3" t="n">
-        <v>55.287873</v>
-      </c>
-      <c r="D38" s="2" t="n">
-        <f aca="false">IF(B38&gt;C38,1,IF(B38=C38,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="E38" s="0" t="n">
-        <v>2145.5</v>
-      </c>
-      <c r="F38" s="0" t="n">
-        <v>1640.2</v>
-      </c>
-      <c r="G38" s="2" t="n">
-        <f aca="false">IF(E38&gt;F38,1,IF(E38=F38,"X",2))</f>
-        <v>1</v>
-      </c>
-      <c r="H38" s="0" t="n">
-        <v>0.081322</v>
-      </c>
-      <c r="I38" s="0" t="n">
-        <v>2.643661</v>
-      </c>
-      <c r="J38" s="2" t="n">
-        <f aca="false">IF(H38&gt;I38,1,IF(H38=I38,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="K38" s="3" t="n">
-        <f aca="false">I38/H38</f>
-        <v>32.5085585696367</v>
-      </c>
-      <c r="L38" s="0" t="n">
-        <v>54.843364</v>
-      </c>
-      <c r="M38" s="0" t="n">
-        <v>55.835052</v>
-      </c>
-      <c r="N38" s="2" t="n">
-        <f aca="false">IF(L38&gt;M38,1,IF(L38=M38,"X",2))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="0" t="n">
-        <f aca="false">AVERAGE(B4:B38)</f>
-        <v>59.1639494857143</v>
-      </c>
-      <c r="C39" s="0" t="n">
-        <f aca="false">AVERAGE(C4:C38)</f>
-        <v>59.0169466857143</v>
-      </c>
-      <c r="E39" s="0" t="n">
-        <f aca="false">AVERAGE(E4:E38)</f>
-        <v>8061.33142857143</v>
-      </c>
-      <c r="F39" s="0" t="n">
-        <f aca="false">AVERAGE(F4:F38)</f>
-        <v>8017.26571428572</v>
-      </c>
-      <c r="H39" s="0" t="n">
-        <f aca="false">AVERAGE(H4:H38)</f>
-        <v>1.02047357142857</v>
-      </c>
-      <c r="I39" s="0" t="n">
-        <f aca="false">AVERAGE(I4:I38)</f>
-        <v>196.595161857143</v>
-      </c>
-      <c r="K39" s="3" t="n">
-        <f aca="false">I39/H39</f>
-        <v>192.650909696688</v>
-      </c>
-      <c r="L39" s="0" t="n">
-        <f aca="false">AVERAGE(L4:L38)</f>
-        <v>83.2127172857143</v>
-      </c>
-      <c r="M39" s="0" t="n">
-        <f aca="false">AVERAGE(M4:M38)</f>
-        <v>83.7058487714286</v>
-      </c>
-      <c r="N39" s="2"/>
+        <f aca="false">MEDIAN(M4:M33)</f>
+        <v>87.805135</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/src/QckChi_result_7labels.xlsx
+++ b/src/QckChi_result_7labels.xlsx
@@ -223,6 +223,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -319,14 +320,14 @@
   <dimension ref="A1:R75"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+      <selection pane="topLeft" activeCell="J2" activeCellId="1" sqref="29:29 J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.95"/>
@@ -4443,13 +4444,13 @@
   </sheetPr>
   <dimension ref="A2:P35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D40" activeCellId="0" sqref="D40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="29:29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.7"/>
   </cols>
   <sheetData>
@@ -6119,6 +6120,10 @@
       <c r="F34" s="0" t="n">
         <f aca="false">AVERAGE(F4:F33)</f>
         <v>3022.85666666667</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <f aca="false">E34/F34</f>
+        <v>1.01700709152601</v>
       </c>
       <c r="H34" s="0" t="n">
         <f aca="false">AVERAGE(H4:H33)</f>

--- a/src/QckChi_result_7labels.xlsx
+++ b/src/QckChi_result_7labels.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="QckChi_result_7labels" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="62">
   <si>
     <t xml:space="preserve">=====================</t>
   </si>
@@ -213,10 +214,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -283,7 +286,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -297,6 +300,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -320,14 +331,14 @@
   <dimension ref="A1:R75"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="1" sqref="29:29 J2"/>
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.95"/>
@@ -4444,11 +4455,11 @@
   </sheetPr>
   <dimension ref="A2:P35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="29:29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.7"/>
@@ -6182,4 +6193,936 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:H35"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.88"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>18.830858</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>3.066603</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>272.1</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0.034729</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0.266552</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <f aca="false">G4/F4</f>
+        <v>7.67519940107691</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>59.457786</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>60.291451</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>23543.9</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>23544</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0.607013</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>143.108063</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <f aca="false">G5/F5</f>
+        <v>235.757822320115</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>44.347826</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>45.507246</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>571.6</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>571.6</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0.006745</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0.067386</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <f aca="false">G6/F6</f>
+        <v>9.99051148999259</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>86.226415</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>87.358491</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0.021274</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0.045084</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <f aca="false">G7/F7</f>
+        <v>2.11920654319827</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>4.109589</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>4.109589</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>328.5</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>328.5</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0.007951</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0.023434</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <f aca="false">G8/F8</f>
+        <v>2.94730222613508</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>54.202899</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>58.550725</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0.004179</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0.020969</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <f aca="false">G9/F9</f>
+        <v>5.01770758554678</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>23.712075</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>23.712075</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>7455.3</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>7455.9</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0.910875</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>10.609804</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <f aca="false">G10/F10</f>
+        <v>11.6479253465075</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>30.781011</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>31.240429</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>551.6</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>551.6</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0.00908</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0.066846</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <f aca="false">G11/F11</f>
+        <v>7.36189427312775</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>92.666667</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>66.1</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>66.1</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0.001002</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0.002167</v>
+      </c>
+      <c r="H12" s="3" t="n">
+        <f aca="false">G12/F12</f>
+        <v>2.1626746506986</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>82.13</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>82.785</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>13086.4</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>12643.9</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0.371883</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>40.1901</v>
+      </c>
+      <c r="H13" s="3" t="n">
+        <f aca="false">G13/F13</f>
+        <v>108.071893579432</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>80.294427</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>81.382755</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>4517.4</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>4517.4</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0.237756</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>15.002445</v>
+      </c>
+      <c r="H14" s="3" t="n">
+        <f aca="false">G14/F14</f>
+        <v>63.1001741280977</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>91.162791</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>92.093023</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>67.4</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>67.4</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0.001202</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0.003458</v>
+      </c>
+      <c r="H15" s="3" t="n">
+        <f aca="false">G15/F15</f>
+        <v>2.87687188019967</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>73.493976</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>74.819277</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>183.1</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0.005499</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>0.023199</v>
+      </c>
+      <c r="H16" s="3" t="n">
+        <f aca="false">G16/F16</f>
+        <v>4.21876704855428</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>94.499269</v>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>94.133772</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>292.4</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>289.4</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0.057951</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>0.332775</v>
+      </c>
+      <c r="H17" s="3" t="n">
+        <f aca="false">G17/F17</f>
+        <v>5.74235129678521</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>77.492722</v>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>77.520015</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>9394.6</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>9394.6</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0.179212</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>11.401409</v>
+      </c>
+      <c r="H18" s="3" t="n">
+        <f aca="false">G18/F18</f>
+        <v>63.6196739057652</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>82.84604</v>
+      </c>
+      <c r="C19" s="3" t="n">
+        <v>82.068838</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>471.1</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>471.1</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0.035796</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>0.355269</v>
+      </c>
+      <c r="H19" s="3" t="n">
+        <f aca="false">G19/F19</f>
+        <v>9.92482400268186</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>60.9375</v>
+      </c>
+      <c r="C20" s="3" t="n">
+        <v>62.369792</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>599.5</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>599.5</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0.008396</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>0.099735</v>
+      </c>
+      <c r="H20" s="3" t="n">
+        <f aca="false">G20/F20</f>
+        <v>11.8788708909004</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>39.783784</v>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>39.959459</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>6612.4</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>6612.4</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>0.165381</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>10.547319</v>
+      </c>
+      <c r="H21" s="3" t="n">
+        <f aca="false">G21/F21</f>
+        <v>63.7758811471693</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>46.753247</v>
+      </c>
+      <c r="C22" s="3" t="n">
+        <v>46.969697</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>399.1</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>399.1</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>0.005524</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>0.040247</v>
+      </c>
+      <c r="H22" s="3" t="n">
+        <f aca="false">G22/F22</f>
+        <v>7.28584359160029</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="3" t="n">
+        <v>70.30303</v>
+      </c>
+      <c r="C23" s="3" t="n">
+        <v>72.696193</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>3237.3</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>2992.7</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>0.249837</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>15.094193</v>
+      </c>
+      <c r="H23" s="3" t="n">
+        <f aca="false">G23/F23</f>
+        <v>60.4161633384967</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="3" t="n">
+        <v>88.571429</v>
+      </c>
+      <c r="C24" s="3" t="n">
+        <v>88.528139</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>1226.7</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>1217.1</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>0.047331</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>0.442371</v>
+      </c>
+      <c r="H24" s="3" t="n">
+        <f aca="false">G24/F24</f>
+        <v>9.34632693160931</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="3" t="n">
+        <v>97.701685</v>
+      </c>
+      <c r="C25" s="3" t="n">
+        <v>91.586062</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>84.6</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>0.583724</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>1.567628</v>
+      </c>
+      <c r="H25" s="3" t="n">
+        <f aca="false">G25/F25</f>
+        <v>2.68556372532224</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>75.766804</v>
+      </c>
+      <c r="C26" s="3" t="n">
+        <v>76.702197</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>2154.8</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>2155.6</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>0.270649</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>4.471193</v>
+      </c>
+      <c r="H26" s="3" t="n">
+        <f aca="false">G26/F26</f>
+        <v>16.5202642537013</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="3" t="n">
+        <v>75.309091</v>
+      </c>
+      <c r="C27" s="3" t="n">
+        <v>75.6</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>4389.1</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>4366.3</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>0.289956</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>8.216433</v>
+      </c>
+      <c r="H27" s="3" t="n">
+        <f aca="false">G27/F27</f>
+        <v>28.3368269668501</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="3" t="n">
+        <v>91.402778</v>
+      </c>
+      <c r="C28" s="3" t="n">
+        <v>91.597222</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>1165.3</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>1161.5</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>0.125682</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>1.376095</v>
+      </c>
+      <c r="H28" s="3" t="n">
+        <f aca="false">G28/F28</f>
+        <v>10.9490221352302</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="3" t="n">
+        <v>0.256757</v>
+      </c>
+      <c r="C29" s="3" t="n">
+        <v>0.256757</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>6660</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>6660</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>0.157665</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>7.579011</v>
+      </c>
+      <c r="H29" s="3" t="n">
+        <f aca="false">G29/F29</f>
+        <v>48.0703453524879</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="3" t="n">
+        <v>29.078014</v>
+      </c>
+      <c r="C30" s="3" t="n">
+        <v>29.314421</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>755.6</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>753.4</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>0.021342</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>0.129281</v>
+      </c>
+      <c r="H30" s="3" t="n">
+        <f aca="false">G30/F30</f>
+        <v>6.05758598069534</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="3" t="n">
+        <v>92.727273</v>
+      </c>
+      <c r="C31" s="3" t="n">
+        <v>93.030303</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>748.6</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>748.4</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>0.013008</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>0.16008</v>
+      </c>
+      <c r="H31" s="3" t="n">
+        <f aca="false">G31/F31</f>
+        <v>12.3062730627306</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="3" t="n">
+        <v>59.287054</v>
+      </c>
+      <c r="C32" s="3" t="n">
+        <v>59.099437</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>1028.2</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>951</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>0.025189</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>0.364136</v>
+      </c>
+      <c r="H32" s="3" t="n">
+        <f aca="false">G32/F32</f>
+        <v>14.4561514947001</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="3" t="n">
+        <v>54.328297</v>
+      </c>
+      <c r="C33" s="3" t="n">
+        <v>55.287873</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>2145.5</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>1640.2</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>0.081322</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>2.643661</v>
+      </c>
+      <c r="H33" s="3" t="n">
+        <f aca="false">G33/F33</f>
+        <v>32.5085585696367</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="3" t="n">
+        <f aca="false">AVERAGE(B4:B33)</f>
+        <v>62.5931475666667</v>
+      </c>
+      <c r="C34" s="3" t="n">
+        <f aca="false">AVERAGE(C4:C33)</f>
+        <v>62.4767836</v>
+      </c>
+      <c r="D34" s="4" t="n">
+        <f aca="false">AVERAGE(D4:D33)</f>
+        <v>3074.26666666667</v>
+      </c>
+      <c r="E34" s="4" t="n">
+        <f aca="false">AVERAGE(E4:E33)</f>
+        <v>3022.85666666667</v>
+      </c>
+      <c r="F34" s="5" t="n">
+        <f aca="false">AVERAGE(F4:F33)</f>
+        <v>0.151238433333333</v>
+      </c>
+      <c r="G34" s="5" t="n">
+        <f aca="false">AVERAGE(G4:G33)</f>
+        <v>9.1416781</v>
+      </c>
+      <c r="H34" s="3" t="n">
+        <f aca="false">G34/F34</f>
+        <v>60.4454694386546</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="n">
+        <f aca="false">MEDIAN(B4:B33)</f>
+        <v>71.898503</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <f aca="false">MEDIAN(C4:C33)</f>
+        <v>73.757735</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <f aca="false">MEDIAN(F4:F33)</f>
+        <v>0.0415635</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <f aca="false">MEDIAN(G4:G33)</f>
+        <v>0.3597025</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>